--- a/Tabelas para o relatório.xlsx
+++ b/Tabelas para o relatório.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Plufty\Desktop\5º Período\Sistemas Operacionais\Projeto\Algoritimos Memoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B0EA11-F18C-4B6A-9871-DC36C25A2875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699AE47B-7529-4DE2-A639-C7C1156C47C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D7EFB73-A786-4432-A134-C272E8088DB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D7EFB73-A786-4432-A134-C272E8088DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,11 +134,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -149,6 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,34 +423,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,34 +1046,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,34 +1669,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,34 +2855,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,34 +2924,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3535,34 +3547,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7691,8 +7703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE71603F-D43C-47F5-A0DE-AC867211C97C}">
   <dimension ref="Q1:AF79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z57" sqref="Z57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7773,7 +7785,7 @@
         <v>12</v>
       </c>
       <c r="T3" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U3" s="1">
         <v>9</v>
@@ -7817,7 +7829,7 @@
         <v>12</v>
       </c>
       <c r="T4" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U4" s="1">
         <v>9</v>
@@ -7857,7 +7869,7 @@
         <v>12</v>
       </c>
       <c r="T5" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U5" s="1">
         <v>9</v>
@@ -7897,7 +7909,7 @@
         <v>12</v>
       </c>
       <c r="T6" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U6" s="1">
         <v>9</v>
@@ -7937,7 +7949,7 @@
         <v>12</v>
       </c>
       <c r="T7" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U7" s="1">
         <v>9</v>
@@ -7977,7 +7989,7 @@
         <v>12</v>
       </c>
       <c r="T8" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U8" s="1">
         <v>9</v>
@@ -8017,7 +8029,7 @@
         <v>12</v>
       </c>
       <c r="T9" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U9" s="1">
         <v>9</v>
@@ -8057,7 +8069,7 @@
         <v>12</v>
       </c>
       <c r="T10" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U10" s="1">
         <v>9</v>
@@ -8097,7 +8109,7 @@
         <v>12</v>
       </c>
       <c r="T11" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U11" s="1">
         <v>9</v>
@@ -8137,7 +8149,7 @@
         <v>12</v>
       </c>
       <c r="T12" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U12" s="1">
         <v>9</v>
@@ -8233,10 +8245,10 @@
         <v>9</v>
       </c>
       <c r="Z16" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA16" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB16" s="1">
         <v>7</v>
@@ -8259,7 +8271,7 @@
         <v>9</v>
       </c>
       <c r="T17" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U17" s="1">
         <v>7</v>
@@ -8277,10 +8289,10 @@
         <v>9</v>
       </c>
       <c r="Z17" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA17" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB17" s="1">
         <v>7</v>
@@ -8301,7 +8313,7 @@
         <v>9</v>
       </c>
       <c r="T18" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U18" s="1">
         <v>7</v>
@@ -8317,10 +8329,10 @@
         <v>9</v>
       </c>
       <c r="Z18" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA18" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB18" s="1">
         <v>7</v>
@@ -8341,7 +8353,7 @@
         <v>9</v>
       </c>
       <c r="T19" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U19" s="1">
         <v>7</v>
@@ -8357,10 +8369,10 @@
         <v>9</v>
       </c>
       <c r="Z19" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA19" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB19" s="1">
         <v>7</v>
@@ -8381,7 +8393,7 @@
         <v>9</v>
       </c>
       <c r="T20" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U20" s="1">
         <v>7</v>
@@ -8397,10 +8409,10 @@
         <v>9</v>
       </c>
       <c r="Z20" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA20" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB20" s="1">
         <v>7</v>
@@ -8421,7 +8433,7 @@
         <v>9</v>
       </c>
       <c r="T21" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U21" s="1">
         <v>7</v>
@@ -8437,10 +8449,10 @@
         <v>9</v>
       </c>
       <c r="Z21" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA21" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB21" s="1">
         <v>7</v>
@@ -8461,7 +8473,7 @@
         <v>9</v>
       </c>
       <c r="T22" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U22" s="1">
         <v>7</v>
@@ -8477,10 +8489,10 @@
         <v>9</v>
       </c>
       <c r="Z22" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA22" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB22" s="1">
         <v>7</v>
@@ -8501,7 +8513,7 @@
         <v>9</v>
       </c>
       <c r="T23" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U23" s="1">
         <v>7</v>
@@ -8517,10 +8529,10 @@
         <v>9</v>
       </c>
       <c r="Z23" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA23" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB23" s="1">
         <v>7</v>
@@ -8541,7 +8553,7 @@
         <v>9</v>
       </c>
       <c r="T24" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U24" s="1">
         <v>7</v>
@@ -8557,10 +8569,10 @@
         <v>9</v>
       </c>
       <c r="Z24" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA24" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB24" s="1">
         <v>7</v>
@@ -8581,7 +8593,7 @@
         <v>9</v>
       </c>
       <c r="T25" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U25" s="1">
         <v>7</v>
@@ -8597,10 +8609,10 @@
         <v>9</v>
       </c>
       <c r="Z25" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA25" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB25" s="1">
         <v>7</v>
@@ -8621,7 +8633,7 @@
         <v>9</v>
       </c>
       <c r="T26" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U26" s="1">
         <v>7</v>
@@ -8699,7 +8711,7 @@
         <v>10</v>
       </c>
       <c r="T30" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U30" s="1">
         <v>6</v>
@@ -8720,7 +8732,7 @@
         <v>10</v>
       </c>
       <c r="AA30" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB30" s="1">
         <v>6</v>
@@ -8743,7 +8755,7 @@
         <v>10</v>
       </c>
       <c r="T31" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U31" s="1">
         <v>6</v>
@@ -8762,7 +8774,7 @@
         <v>10</v>
       </c>
       <c r="AA31" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB31" s="1">
         <v>6</v>
@@ -8783,7 +8795,7 @@
         <v>10</v>
       </c>
       <c r="T32" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U32" s="1">
         <v>6</v>
@@ -8802,7 +8814,7 @@
         <v>10</v>
       </c>
       <c r="AA32" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB32" s="1">
         <v>6</v>
@@ -8823,7 +8835,7 @@
         <v>10</v>
       </c>
       <c r="T33" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U33" s="1">
         <v>6</v>
@@ -8842,7 +8854,7 @@
         <v>10</v>
       </c>
       <c r="AA33" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB33" s="1">
         <v>6</v>
@@ -8863,7 +8875,7 @@
         <v>10</v>
       </c>
       <c r="T34" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U34" s="1">
         <v>6</v>
@@ -8882,7 +8894,7 @@
         <v>10</v>
       </c>
       <c r="AA34" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB34" s="1">
         <v>6</v>
@@ -8903,7 +8915,7 @@
         <v>10</v>
       </c>
       <c r="T35" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U35" s="1">
         <v>6</v>
@@ -8922,7 +8934,7 @@
         <v>10</v>
       </c>
       <c r="AA35" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB35" s="1">
         <v>6</v>
@@ -8943,7 +8955,7 @@
         <v>10</v>
       </c>
       <c r="T36" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U36" s="1">
         <v>6</v>
@@ -8962,7 +8974,7 @@
         <v>10</v>
       </c>
       <c r="AA36" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB36" s="1">
         <v>6</v>
@@ -8983,7 +8995,7 @@
         <v>10</v>
       </c>
       <c r="T37" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U37" s="1">
         <v>6</v>
@@ -9002,7 +9014,7 @@
         <v>10</v>
       </c>
       <c r="AA37" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB37" s="1">
         <v>6</v>
@@ -9023,7 +9035,7 @@
         <v>10</v>
       </c>
       <c r="T38" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U38" s="1">
         <v>6</v>
@@ -9042,7 +9054,7 @@
         <v>10</v>
       </c>
       <c r="AA38" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB38" s="1">
         <v>6</v>
@@ -9063,7 +9075,7 @@
         <v>10</v>
       </c>
       <c r="T39" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U39" s="1">
         <v>6</v>
@@ -9082,7 +9094,7 @@
         <v>10</v>
       </c>
       <c r="AA39" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB39" s="1">
         <v>6</v>
@@ -9091,6 +9103,9 @@
         <v>6</v>
       </c>
       <c r="AD39" s="4"/>
+    </row>
+    <row r="40" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="T40" s="6"/>
     </row>
     <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="32:32" x14ac:dyDescent="0.25">

--- a/Tabelas para o relatório.xlsx
+++ b/Tabelas para o relatório.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Plufty\Desktop\5º Período\Sistemas Operacionais\Projeto\Algoritimos Memoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699AE47B-7529-4DE2-A639-C7C1156C47C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A274949-3DAD-4FB4-8AB7-9BE7DC70F238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D7EFB73-A786-4432-A134-C272E8088DB6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
   <si>
     <t>Page Fault</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>10 Páginas 2 Frames</t>
+  </si>
+  <si>
+    <t>9 Páginas 2 Frames</t>
+  </si>
+  <si>
+    <t>11 Páginas 1 Frames</t>
+  </si>
+  <si>
+    <t>9 Páginas 3 Frames</t>
+  </si>
+  <si>
+    <t>10 Páginas 1 Frame</t>
   </si>
 </sst>
 </file>
@@ -154,13 +166,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,6 +727,629 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1318791488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>11 Páginas 1 Frame</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$AA$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIFO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AA$56:$AA$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DC5-4C1B-A94E-B5D88C99C54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$AB$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>second_chance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AB$56:$AB$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DC5-4C1B-A94E-B5D88C99C54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$AC$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AC$56:$AC$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7DC5-4C1B-A94E-B5D88C99C54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$AD$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AD$56:$AD$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7DC5-4C1B-A94E-B5D88C99C54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$AE$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AE$56:$AE$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7DC5-4C1B-A94E-B5D88C99C54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="431748783"/>
+        <c:axId val="431749615"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="431748783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431749615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="431749615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431748783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3925,7 +4560,1916 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>9 Páginas 3 Frames</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$S$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIFO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$S$57:$S$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAE4-4A92-B387-221608957E92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$T$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>second_chance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$T$57:$T$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EAE4-4A92-B387-221608957E92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$U$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$U$57:$U$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EAE4-4A92-B387-221608957E92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$V$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$V$57:$V$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EAE4-4A92-B387-221608957E92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$W$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$W$57:$W$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EAE4-4A92-B387-221608957E92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="588498639"/>
+        <c:axId val="588479919"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="588498639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588479919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="588479919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588498639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>9 Páginas 2 Frames</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$AA$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIFO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AA$43:$AA$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D797-4072-8C73-B09DDDB3E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$AB$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>second_chance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AB$43:$AB$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D797-4072-8C73-B09DDDB3E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$AC$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AC$43:$AC$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D797-4072-8C73-B09DDDB3E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$AD$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AD$43:$AD$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D797-4072-8C73-B09DDDB3E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$AE$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AE$43:$AE$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D797-4072-8C73-B09DDDB3E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="555714415"/>
+        <c:axId val="555714831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="555714415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555714831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="555714831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555714415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>10 Páginas 1 Frame</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$S$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIFO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$S$43:$S$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEE8-4970-8388-EBB0A7217A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$T$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>second_chance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$T$43:$T$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEE8-4970-8388-EBB0A7217A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$U$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$U$43:$U$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BEE8-4970-8388-EBB0A7217A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$V$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$V$43:$V$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BEE8-4970-8388-EBB0A7217A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$W$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$W$43:$W$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BEE8-4970-8388-EBB0A7217A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="551043327"/>
+        <c:axId val="551054559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="551043327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551054559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551054559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551043327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4165,6 +6709,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4668,7 +7332,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5171,7 +7835,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5674,7 +8338,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6177,7 +8841,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6680,7 +9344,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7367,16 +12043,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>49695</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>11595</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>44727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>306456</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>87795</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>120927</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7396,6 +12072,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>662610</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>554936</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4971659-C427-4EC3-858C-1055F879941C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>588068</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>480394</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FED132C-76D8-45A9-94CE-DF5169EE52EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>20706</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>385141</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>96078</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59415805-2DDD-444D-B6B3-0711BE1257FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600489</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>36443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>352011</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>112643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CCC14A-6A4B-433F-8A10-19AEF58FA28A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7703,8 +12523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE71603F-D43C-47F5-A0DE-AC867211C97C}">
   <dimension ref="Q1:AF79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" topLeftCell="E69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AE91" sqref="AE91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7719,22 +12539,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="X1" s="5" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="X1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
     </row>
     <row r="2" spans="17:30" x14ac:dyDescent="0.25">
       <c r="Q2" s="2" t="s">
@@ -7793,7 +12613,7 @@
       <c r="V3" s="1">
         <v>11</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X3" s="1">
@@ -7814,7 +12634,7 @@
       <c r="AC3" s="1">
         <v>5</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7837,7 +12657,7 @@
       <c r="V4" s="1">
         <v>11</v>
       </c>
-      <c r="W4" s="4"/>
+      <c r="W4" s="5"/>
       <c r="X4" s="1">
         <v>2</v>
       </c>
@@ -7856,7 +12676,7 @@
       <c r="AC4" s="1">
         <v>5</v>
       </c>
-      <c r="AD4" s="4"/>
+      <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="17:30" x14ac:dyDescent="0.25">
       <c r="Q5" s="1">
@@ -7877,7 +12697,7 @@
       <c r="V5" s="1">
         <v>11</v>
       </c>
-      <c r="W5" s="4"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="1">
         <v>3</v>
       </c>
@@ -7896,7 +12716,7 @@
       <c r="AC5" s="1">
         <v>5</v>
       </c>
-      <c r="AD5" s="4"/>
+      <c r="AD5" s="5"/>
     </row>
     <row r="6" spans="17:30" x14ac:dyDescent="0.25">
       <c r="Q6" s="1">
@@ -7917,7 +12737,7 @@
       <c r="V6" s="1">
         <v>11</v>
       </c>
-      <c r="W6" s="4"/>
+      <c r="W6" s="5"/>
       <c r="X6" s="1">
         <v>4</v>
       </c>
@@ -7936,7 +12756,7 @@
       <c r="AC6" s="1">
         <v>5</v>
       </c>
-      <c r="AD6" s="4"/>
+      <c r="AD6" s="5"/>
     </row>
     <row r="7" spans="17:30" x14ac:dyDescent="0.25">
       <c r="Q7" s="1">
@@ -7957,7 +12777,7 @@
       <c r="V7" s="1">
         <v>11</v>
       </c>
-      <c r="W7" s="4"/>
+      <c r="W7" s="5"/>
       <c r="X7" s="1">
         <v>5</v>
       </c>
@@ -7976,7 +12796,7 @@
       <c r="AC7" s="1">
         <v>5</v>
       </c>
-      <c r="AD7" s="4"/>
+      <c r="AD7" s="5"/>
     </row>
     <row r="8" spans="17:30" x14ac:dyDescent="0.25">
       <c r="Q8" s="1">
@@ -7997,7 +12817,7 @@
       <c r="V8" s="1">
         <v>11</v>
       </c>
-      <c r="W8" s="4"/>
+      <c r="W8" s="5"/>
       <c r="X8" s="1">
         <v>6</v>
       </c>
@@ -8016,7 +12836,7 @@
       <c r="AC8" s="1">
         <v>5</v>
       </c>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="5"/>
     </row>
     <row r="9" spans="17:30" x14ac:dyDescent="0.25">
       <c r="Q9" s="1">
@@ -8037,7 +12857,7 @@
       <c r="V9" s="1">
         <v>11</v>
       </c>
-      <c r="W9" s="4"/>
+      <c r="W9" s="5"/>
       <c r="X9" s="1">
         <v>7</v>
       </c>
@@ -8056,7 +12876,7 @@
       <c r="AC9" s="1">
         <v>5</v>
       </c>
-      <c r="AD9" s="4"/>
+      <c r="AD9" s="5"/>
     </row>
     <row r="10" spans="17:30" x14ac:dyDescent="0.25">
       <c r="Q10" s="1">
@@ -8077,7 +12897,7 @@
       <c r="V10" s="1">
         <v>10</v>
       </c>
-      <c r="W10" s="4"/>
+      <c r="W10" s="5"/>
       <c r="X10" s="1">
         <v>8</v>
       </c>
@@ -8096,7 +12916,7 @@
       <c r="AC10" s="1">
         <v>5</v>
       </c>
-      <c r="AD10" s="4"/>
+      <c r="AD10" s="5"/>
     </row>
     <row r="11" spans="17:30" x14ac:dyDescent="0.25">
       <c r="Q11" s="1">
@@ -8117,7 +12937,7 @@
       <c r="V11" s="1">
         <v>10</v>
       </c>
-      <c r="W11" s="4"/>
+      <c r="W11" s="5"/>
       <c r="X11" s="1">
         <v>9</v>
       </c>
@@ -8136,7 +12956,7 @@
       <c r="AC11" s="1">
         <v>5</v>
       </c>
-      <c r="AD11" s="4"/>
+      <c r="AD11" s="5"/>
     </row>
     <row r="12" spans="17:30" x14ac:dyDescent="0.25">
       <c r="Q12" s="1">
@@ -8157,7 +12977,7 @@
       <c r="V12" s="1">
         <v>11</v>
       </c>
-      <c r="W12" s="4"/>
+      <c r="W12" s="5"/>
       <c r="X12" s="1">
         <v>10</v>
       </c>
@@ -8176,30 +12996,30 @@
       <c r="AC12" s="1">
         <v>5</v>
       </c>
-      <c r="AD12" s="4"/>
+      <c r="AD12" s="5"/>
     </row>
     <row r="13" spans="17:30" x14ac:dyDescent="0.25">
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="X14" s="5" t="s">
+      <c r="X14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
     </row>
     <row r="15" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
       <c r="X15" s="2" t="s">
         <v>11</v>
       </c>
@@ -8256,7 +13076,7 @@
       <c r="AC16" s="1">
         <v>11</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AD16" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8279,7 +13099,7 @@
       <c r="V17" s="1">
         <v>9</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X17" s="1">
@@ -8300,7 +13120,7 @@
       <c r="AC17" s="1">
         <v>10</v>
       </c>
-      <c r="AD17" s="4"/>
+      <c r="AD17" s="5"/>
     </row>
     <row r="18" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q18" s="1">
@@ -8321,7 +13141,7 @@
       <c r="V18" s="1">
         <v>9</v>
       </c>
-      <c r="W18" s="4"/>
+      <c r="W18" s="5"/>
       <c r="X18" s="1">
         <v>3</v>
       </c>
@@ -8340,7 +13160,7 @@
       <c r="AC18" s="1">
         <v>9</v>
       </c>
-      <c r="AD18" s="4"/>
+      <c r="AD18" s="5"/>
     </row>
     <row r="19" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q19" s="1">
@@ -8361,7 +13181,7 @@
       <c r="V19" s="1">
         <v>8</v>
       </c>
-      <c r="W19" s="4"/>
+      <c r="W19" s="5"/>
       <c r="X19" s="1">
         <v>4</v>
       </c>
@@ -8380,7 +13200,7 @@
       <c r="AC19" s="1">
         <v>9</v>
       </c>
-      <c r="AD19" s="4"/>
+      <c r="AD19" s="5"/>
     </row>
     <row r="20" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q20" s="1">
@@ -8401,7 +13221,7 @@
       <c r="V20" s="1">
         <v>8</v>
       </c>
-      <c r="W20" s="4"/>
+      <c r="W20" s="5"/>
       <c r="X20" s="1">
         <v>5</v>
       </c>
@@ -8420,7 +13240,7 @@
       <c r="AC20" s="1">
         <v>9</v>
       </c>
-      <c r="AD20" s="4"/>
+      <c r="AD20" s="5"/>
     </row>
     <row r="21" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q21" s="1">
@@ -8441,7 +13261,7 @@
       <c r="V21" s="1">
         <v>9</v>
       </c>
-      <c r="W21" s="4"/>
+      <c r="W21" s="5"/>
       <c r="X21" s="1">
         <v>6</v>
       </c>
@@ -8460,7 +13280,7 @@
       <c r="AC21" s="1">
         <v>9</v>
       </c>
-      <c r="AD21" s="4"/>
+      <c r="AD21" s="5"/>
     </row>
     <row r="22" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q22" s="1">
@@ -8481,7 +13301,7 @@
       <c r="V22" s="1">
         <v>10</v>
       </c>
-      <c r="W22" s="4"/>
+      <c r="W22" s="5"/>
       <c r="X22" s="1">
         <v>7</v>
       </c>
@@ -8500,7 +13320,7 @@
       <c r="AC22" s="1">
         <v>9</v>
       </c>
-      <c r="AD22" s="4"/>
+      <c r="AD22" s="5"/>
     </row>
     <row r="23" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q23" s="1">
@@ -8521,7 +13341,7 @@
       <c r="V23" s="1">
         <v>9</v>
       </c>
-      <c r="W23" s="4"/>
+      <c r="W23" s="5"/>
       <c r="X23" s="1">
         <v>8</v>
       </c>
@@ -8540,7 +13360,7 @@
       <c r="AC23" s="1">
         <v>9</v>
       </c>
-      <c r="AD23" s="4"/>
+      <c r="AD23" s="5"/>
     </row>
     <row r="24" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q24" s="1">
@@ -8561,7 +13381,7 @@
       <c r="V24" s="1">
         <v>10</v>
       </c>
-      <c r="W24" s="4"/>
+      <c r="W24" s="5"/>
       <c r="X24" s="1">
         <v>9</v>
       </c>
@@ -8580,7 +13400,7 @@
       <c r="AC24" s="1">
         <v>10</v>
       </c>
-      <c r="AD24" s="4"/>
+      <c r="AD24" s="5"/>
     </row>
     <row r="25" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q25" s="1">
@@ -8601,7 +13421,7 @@
       <c r="V25" s="1">
         <v>11</v>
       </c>
-      <c r="W25" s="4"/>
+      <c r="W25" s="5"/>
       <c r="X25" s="1">
         <v>10</v>
       </c>
@@ -8620,7 +13440,7 @@
       <c r="AC25" s="1">
         <v>7</v>
       </c>
-      <c r="AD25" s="4"/>
+      <c r="AD25" s="5"/>
     </row>
     <row r="26" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q26" s="1">
@@ -8641,25 +13461,25 @@
       <c r="V26" s="1">
         <v>10</v>
       </c>
-      <c r="W26" s="4"/>
+      <c r="W26" s="5"/>
     </row>
     <row r="28" spans="17:32" x14ac:dyDescent="0.25">
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="X28" s="5" t="s">
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="X28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
     </row>
     <row r="29" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q29" s="2" t="s">
@@ -8719,7 +13539,7 @@
       <c r="V30" s="1">
         <v>6</v>
       </c>
-      <c r="W30" s="4" t="s">
+      <c r="W30" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X30" s="1">
@@ -8740,7 +13560,7 @@
       <c r="AC30" s="1">
         <v>7</v>
       </c>
-      <c r="AD30" s="4" t="s">
+      <c r="AD30" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8763,7 +13583,7 @@
       <c r="V31" s="1">
         <v>6</v>
       </c>
-      <c r="W31" s="4"/>
+      <c r="W31" s="5"/>
       <c r="X31" s="1">
         <v>2</v>
       </c>
@@ -8782,7 +13602,7 @@
       <c r="AC31" s="1">
         <v>6</v>
       </c>
-      <c r="AD31" s="4"/>
+      <c r="AD31" s="5"/>
     </row>
     <row r="32" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q32" s="1">
@@ -8803,7 +13623,7 @@
       <c r="V32" s="1">
         <v>6</v>
       </c>
-      <c r="W32" s="4"/>
+      <c r="W32" s="5"/>
       <c r="X32" s="1">
         <v>3</v>
       </c>
@@ -8822,9 +13642,9 @@
       <c r="AC32" s="1">
         <v>6</v>
       </c>
-      <c r="AD32" s="4"/>
+      <c r="AD32" s="5"/>
     </row>
-    <row r="33" spans="17:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q33" s="1">
         <v>4</v>
       </c>
@@ -8843,7 +13663,7 @@
       <c r="V33" s="1">
         <v>6</v>
       </c>
-      <c r="W33" s="4"/>
+      <c r="W33" s="5"/>
       <c r="X33" s="1">
         <v>4</v>
       </c>
@@ -8862,9 +13682,9 @@
       <c r="AC33" s="1">
         <v>6</v>
       </c>
-      <c r="AD33" s="4"/>
+      <c r="AD33" s="5"/>
     </row>
-    <row r="34" spans="17:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q34" s="1">
         <v>5</v>
       </c>
@@ -8883,7 +13703,7 @@
       <c r="V34" s="1">
         <v>6</v>
       </c>
-      <c r="W34" s="4"/>
+      <c r="W34" s="5"/>
       <c r="X34" s="1">
         <v>5</v>
       </c>
@@ -8902,9 +13722,9 @@
       <c r="AC34" s="1">
         <v>7</v>
       </c>
-      <c r="AD34" s="4"/>
+      <c r="AD34" s="5"/>
     </row>
-    <row r="35" spans="17:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q35" s="1">
         <v>6</v>
       </c>
@@ -8923,7 +13743,7 @@
       <c r="V35" s="1">
         <v>6</v>
       </c>
-      <c r="W35" s="4"/>
+      <c r="W35" s="5"/>
       <c r="X35" s="1">
         <v>6</v>
       </c>
@@ -8942,9 +13762,9 @@
       <c r="AC35" s="1">
         <v>7</v>
       </c>
-      <c r="AD35" s="4"/>
+      <c r="AD35" s="5"/>
     </row>
-    <row r="36" spans="17:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q36" s="1">
         <v>7</v>
       </c>
@@ -8963,7 +13783,7 @@
       <c r="V36" s="1">
         <v>8</v>
       </c>
-      <c r="W36" s="4"/>
+      <c r="W36" s="5"/>
       <c r="X36" s="1">
         <v>7</v>
       </c>
@@ -8982,9 +13802,9 @@
       <c r="AC36" s="1">
         <v>7</v>
       </c>
-      <c r="AD36" s="4"/>
+      <c r="AD36" s="5"/>
     </row>
-    <row r="37" spans="17:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q37" s="1">
         <v>8</v>
       </c>
@@ -9003,7 +13823,7 @@
       <c r="V37" s="1">
         <v>8</v>
       </c>
-      <c r="W37" s="4"/>
+      <c r="W37" s="5"/>
       <c r="X37" s="1">
         <v>8</v>
       </c>
@@ -9022,9 +13842,9 @@
       <c r="AC37" s="1">
         <v>6</v>
       </c>
-      <c r="AD37" s="4"/>
+      <c r="AD37" s="5"/>
     </row>
-    <row r="38" spans="17:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q38" s="1">
         <v>9</v>
       </c>
@@ -9043,7 +13863,7 @@
       <c r="V38" s="1">
         <v>7</v>
       </c>
-      <c r="W38" s="4"/>
+      <c r="W38" s="5"/>
       <c r="X38" s="1">
         <v>9</v>
       </c>
@@ -9062,9 +13882,9 @@
       <c r="AC38" s="1">
         <v>6</v>
       </c>
-      <c r="AD38" s="4"/>
+      <c r="AD38" s="5"/>
     </row>
-    <row r="39" spans="17:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="17:32" x14ac:dyDescent="0.25">
       <c r="Q39" s="1">
         <v>10</v>
       </c>
@@ -9083,7 +13903,7 @@
       <c r="V39" s="1">
         <v>7</v>
       </c>
-      <c r="W39" s="4"/>
+      <c r="W39" s="5"/>
       <c r="X39" s="1">
         <v>10</v>
       </c>
@@ -9102,17 +13922,947 @@
       <c r="AC39" s="1">
         <v>6</v>
       </c>
-      <c r="AD39" s="4"/>
+      <c r="AD39" s="5"/>
     </row>
-    <row r="40" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="T40" s="6"/>
+    <row r="40" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="T40" s="4"/>
     </row>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="32:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="R41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="Z41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+    </row>
+    <row r="42" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="R42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>12</v>
+      </c>
+      <c r="T43" s="1">
+        <v>12</v>
+      </c>
+      <c r="U43" s="1">
+        <v>12</v>
+      </c>
+      <c r="V43" s="1">
+        <v>12</v>
+      </c>
+      <c r="W43" s="1">
+        <v>12</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF43" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <v>2</v>
+      </c>
+      <c r="S44" s="1">
+        <v>12</v>
+      </c>
+      <c r="T44" s="1">
+        <v>12</v>
+      </c>
+      <c r="U44" s="1">
+        <v>12</v>
+      </c>
+      <c r="V44" s="1">
+        <v>12</v>
+      </c>
+      <c r="W44" s="1">
+        <v>12</v>
+      </c>
+      <c r="X44" s="5"/>
+      <c r="Z44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF44" s="5"/>
+    </row>
+    <row r="45" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <v>3</v>
+      </c>
+      <c r="S45" s="1">
+        <v>12</v>
+      </c>
+      <c r="T45" s="1">
+        <v>12</v>
+      </c>
+      <c r="U45" s="1">
+        <v>12</v>
+      </c>
+      <c r="V45" s="1">
+        <v>12</v>
+      </c>
+      <c r="W45" s="1">
+        <v>12</v>
+      </c>
+      <c r="X45" s="5"/>
+      <c r="Z45" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF45" s="5"/>
+    </row>
+    <row r="46" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <v>4</v>
+      </c>
+      <c r="S46" s="1">
+        <v>12</v>
+      </c>
+      <c r="T46" s="1">
+        <v>12</v>
+      </c>
+      <c r="U46" s="1">
+        <v>12</v>
+      </c>
+      <c r="V46" s="1">
+        <v>12</v>
+      </c>
+      <c r="W46" s="1">
+        <v>12</v>
+      </c>
+      <c r="X46" s="5"/>
+      <c r="Z46" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF46" s="5"/>
+    </row>
+    <row r="47" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <v>5</v>
+      </c>
+      <c r="S47" s="1">
+        <v>12</v>
+      </c>
+      <c r="T47" s="1">
+        <v>12</v>
+      </c>
+      <c r="U47" s="1">
+        <v>12</v>
+      </c>
+      <c r="V47" s="1">
+        <v>12</v>
+      </c>
+      <c r="W47" s="1">
+        <v>12</v>
+      </c>
+      <c r="X47" s="5"/>
+      <c r="Z47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF47" s="5"/>
+    </row>
+    <row r="48" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <v>6</v>
+      </c>
+      <c r="S48" s="1">
+        <v>12</v>
+      </c>
+      <c r="T48" s="1">
+        <v>12</v>
+      </c>
+      <c r="U48" s="1">
+        <v>12</v>
+      </c>
+      <c r="V48" s="1">
+        <v>12</v>
+      </c>
+      <c r="W48" s="1">
+        <v>12</v>
+      </c>
+      <c r="X48" s="5"/>
+      <c r="Z48" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF48" s="5"/>
+    </row>
+    <row r="49" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <v>7</v>
+      </c>
+      <c r="S49" s="1">
+        <v>12</v>
+      </c>
+      <c r="T49" s="1">
+        <v>12</v>
+      </c>
+      <c r="U49" s="1">
+        <v>12</v>
+      </c>
+      <c r="V49" s="1">
+        <v>12</v>
+      </c>
+      <c r="W49" s="1">
+        <v>12</v>
+      </c>
+      <c r="X49" s="5"/>
+      <c r="Z49" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF49" s="5"/>
+    </row>
+    <row r="50" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <v>8</v>
+      </c>
+      <c r="S50" s="1">
+        <v>12</v>
+      </c>
+      <c r="T50" s="1">
+        <v>12</v>
+      </c>
+      <c r="U50" s="1">
+        <v>12</v>
+      </c>
+      <c r="V50" s="1">
+        <v>12</v>
+      </c>
+      <c r="W50" s="1">
+        <v>12</v>
+      </c>
+      <c r="X50" s="5"/>
+      <c r="Z50" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF50" s="5"/>
+    </row>
+    <row r="51" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <v>9</v>
+      </c>
+      <c r="S51" s="1">
+        <v>12</v>
+      </c>
+      <c r="T51" s="1">
+        <v>12</v>
+      </c>
+      <c r="U51" s="1">
+        <v>12</v>
+      </c>
+      <c r="V51" s="1">
+        <v>12</v>
+      </c>
+      <c r="W51" s="1">
+        <v>12</v>
+      </c>
+      <c r="X51" s="5"/>
+      <c r="Z51" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF51" s="5"/>
+    </row>
+    <row r="52" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <v>10</v>
+      </c>
+      <c r="S52" s="1">
+        <v>12</v>
+      </c>
+      <c r="T52" s="1">
+        <v>12</v>
+      </c>
+      <c r="U52" s="1">
+        <v>12</v>
+      </c>
+      <c r="V52" s="1">
+        <v>12</v>
+      </c>
+      <c r="W52" s="1">
+        <v>12</v>
+      </c>
+      <c r="X52" s="5"/>
+      <c r="Z52" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF52" s="5"/>
+    </row>
+    <row r="53" spans="18:32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="Z54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+    </row>
+    <row r="55" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="Z55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE55" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF56" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1">
+        <v>9</v>
+      </c>
+      <c r="T57" s="1">
+        <v>9</v>
+      </c>
+      <c r="U57" s="1">
+        <v>7</v>
+      </c>
+      <c r="V57" s="1">
+        <v>7</v>
+      </c>
+      <c r="W57" s="1">
+        <v>11</v>
+      </c>
+      <c r="X57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF57" s="5"/>
+    </row>
+    <row r="58" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <v>2</v>
+      </c>
+      <c r="S58" s="1">
+        <v>9</v>
+      </c>
+      <c r="T58" s="1">
+        <v>9</v>
+      </c>
+      <c r="U58" s="1">
+        <v>7</v>
+      </c>
+      <c r="V58" s="1">
+        <v>7</v>
+      </c>
+      <c r="W58" s="1">
+        <v>11</v>
+      </c>
+      <c r="X58" s="5"/>
+      <c r="Z58" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF58" s="5"/>
+    </row>
+    <row r="59" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <v>3</v>
+      </c>
+      <c r="S59" s="1">
+        <v>9</v>
+      </c>
+      <c r="T59" s="1">
+        <v>9</v>
+      </c>
+      <c r="U59" s="1">
+        <v>7</v>
+      </c>
+      <c r="V59" s="1">
+        <v>7</v>
+      </c>
+      <c r="W59" s="1">
+        <v>8</v>
+      </c>
+      <c r="X59" s="5"/>
+      <c r="Z59" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF59" s="5"/>
+    </row>
+    <row r="60" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <v>4</v>
+      </c>
+      <c r="S60" s="1">
+        <v>9</v>
+      </c>
+      <c r="T60" s="1">
+        <v>9</v>
+      </c>
+      <c r="U60" s="1">
+        <v>7</v>
+      </c>
+      <c r="V60" s="1">
+        <v>7</v>
+      </c>
+      <c r="W60" s="1">
+        <v>9</v>
+      </c>
+      <c r="X60" s="5"/>
+      <c r="Z60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF60" s="5"/>
+    </row>
+    <row r="61" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <v>5</v>
+      </c>
+      <c r="S61" s="1">
+        <v>9</v>
+      </c>
+      <c r="T61" s="1">
+        <v>9</v>
+      </c>
+      <c r="U61" s="1">
+        <v>7</v>
+      </c>
+      <c r="V61" s="1">
+        <v>7</v>
+      </c>
+      <c r="W61" s="1">
+        <v>9</v>
+      </c>
+      <c r="X61" s="5"/>
+      <c r="Z61" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF61" s="5"/>
+    </row>
+    <row r="62" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <v>6</v>
+      </c>
+      <c r="S62" s="1">
+        <v>9</v>
+      </c>
+      <c r="T62" s="1">
+        <v>9</v>
+      </c>
+      <c r="U62" s="1">
+        <v>7</v>
+      </c>
+      <c r="V62" s="1">
+        <v>7</v>
+      </c>
+      <c r="W62" s="1">
+        <v>9</v>
+      </c>
+      <c r="X62" s="5"/>
+      <c r="Z62" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF62" s="5"/>
+    </row>
+    <row r="63" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R63" s="1">
+        <v>7</v>
+      </c>
+      <c r="S63" s="1">
+        <v>9</v>
+      </c>
+      <c r="T63" s="1">
+        <v>9</v>
+      </c>
+      <c r="U63" s="1">
+        <v>7</v>
+      </c>
+      <c r="V63" s="1">
+        <v>7</v>
+      </c>
+      <c r="W63" s="1">
+        <v>9</v>
+      </c>
+      <c r="X63" s="5"/>
+      <c r="Z63" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF63" s="5"/>
+    </row>
+    <row r="64" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <v>8</v>
+      </c>
+      <c r="S64" s="1">
+        <v>9</v>
+      </c>
+      <c r="T64" s="1">
+        <v>9</v>
+      </c>
+      <c r="U64" s="1">
+        <v>7</v>
+      </c>
+      <c r="V64" s="1">
+        <v>7</v>
+      </c>
+      <c r="W64" s="1">
+        <v>9</v>
+      </c>
+      <c r="X64" s="5"/>
+      <c r="Z64" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF64" s="5"/>
+    </row>
+    <row r="65" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <v>9</v>
+      </c>
+      <c r="S65" s="1">
+        <v>9</v>
+      </c>
+      <c r="T65" s="1">
+        <v>9</v>
+      </c>
+      <c r="U65" s="1">
+        <v>7</v>
+      </c>
+      <c r="V65" s="1">
+        <v>7</v>
+      </c>
+      <c r="W65" s="1">
+        <v>9</v>
+      </c>
+      <c r="X65" s="5"/>
+      <c r="Z65" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF65" s="5"/>
+    </row>
+    <row r="66" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R66" s="1">
+        <v>10</v>
+      </c>
+      <c r="S66" s="1">
+        <v>9</v>
+      </c>
+      <c r="T66" s="1">
+        <v>9</v>
+      </c>
+      <c r="U66" s="1">
+        <v>7</v>
+      </c>
+      <c r="V66" s="1">
+        <v>7</v>
+      </c>
+      <c r="W66" s="1">
+        <v>9</v>
+      </c>
+      <c r="X66" s="5"/>
+    </row>
+    <row r="79" spans="18:32" x14ac:dyDescent="0.25">
       <c r="AF79" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
+    <mergeCell ref="AF56:AF65"/>
+    <mergeCell ref="R55:W55"/>
+    <mergeCell ref="X57:X66"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="X43:X52"/>
+    <mergeCell ref="Z41:AE41"/>
+    <mergeCell ref="AF43:AF52"/>
+    <mergeCell ref="Z54:AE54"/>
     <mergeCell ref="AD16:AD25"/>
     <mergeCell ref="Q1:V1"/>
     <mergeCell ref="W3:W12"/>
